--- a/excel/MCDM TOPSIS Portfolio.xlsx
+++ b/excel/MCDM TOPSIS Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undipmail-my.sharepoint.com/personal/nurlintangas_students_undip_ac_id/Documents/kodingan_proyek/proyek_portofolio/portofolio_lintang/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F752BAC9EDBD409D492A0D85DB56F8B23B2D2C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F180B2B5-8710-4DBE-8605-727A92423751}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F752BAC9EDBD409D492A0D85DB56F8B23B2D2C07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE22CB9-55BF-415C-95CC-E6A3BC8160A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,12 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>Tujuan</t>
-  </si>
-  <si>
-    <t>Pemilihan Lokasi Pabrik</t>
   </si>
   <si>
     <t>Pemilihan Supplier</t>
@@ -50,15 +47,6 @@
   </si>
   <si>
     <t>Alternatif</t>
-  </si>
-  <si>
-    <t>Bekasi</t>
-  </si>
-  <si>
-    <t>Tangerang</t>
-  </si>
-  <si>
-    <t>Karawang</t>
   </si>
   <si>
     <t>Kriteria</t>
@@ -205,10 +193,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="&quot;Rp&quot;#,##0"/>
-    <numFmt numFmtId="168" formatCode="0\ &quot;km&quot;"/>
-    <numFmt numFmtId="169" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="0\ &quot;km&quot;"/>
+    <numFmt numFmtId="168" formatCode="#\ ???/???"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -287,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -372,20 +360,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -446,7 +425,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -455,13 +434,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -480,22 +459,22 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,6 +509,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,18 +533,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,6 +563,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171235</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>74916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128426</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>191766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498A3B47-C89A-DC98-1F0B-98335DCB2C41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543763" y="278259"/>
+          <a:ext cx="6314326" cy="3166990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1178,15 +1218,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="22" width="8.7109375" customWidth="1"/>
@@ -1217,19 +1257,15 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1248,19 +1284,15 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1279,12 +1311,8 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="6">
@@ -1311,12 +1339,8 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6">
@@ -1343,12 +1367,8 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="8">
@@ -1375,8 +1395,8 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="10"/>
@@ -1398,19 +1418,15 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1429,19 +1445,15 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1460,19 +1472,15 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="6">
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1491,19 +1499,15 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="6">
         <v>3</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1522,19 +1526,15 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6">
         <v>4</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1553,19 +1553,15 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="61">
-        <v>5</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="8">
         <v>5</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1584,8 +1580,8 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="6"/>
@@ -1607,15 +1603,15 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="52" t="s">
-        <v>14</v>
+      <c r="F15" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1637,9 +1633,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="53"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -8894,12 +8890,13 @@
       <c r="G1000" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xydCzH5lLBzf3i1FMEJbKrFn7EOfgPrnQu+3fWyK3I/lFLY/rNNOiknoqZ6oUFlRkQ5uG/bN/qHHrjaGHX9CSg==" saltValue="fGOXz9hVoBUmdN1D9KpurA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ll3cbPXaNKD8gVitNXlwbGKAmW8rYbAwg3cnzennzCq6IxiOl879l9sEeoCbW3OH82Nd5Rul/nyZEaJ0RKU1VA==" saltValue="b+GVbv8qA2UoHbin1zRzRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="F15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8908,7 +8905,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8924,14 +8921,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
-      <c r="B1" s="54" t="s">
-        <v>17</v>
+      <c r="B1" s="57" t="s">
+        <v>13</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -8955,7 +8952,7 @@
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -8985,25 +8982,25 @@
     <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -9025,7 +9022,7 @@
     <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="20">
         <v>3</v>
@@ -9045,7 +9042,7 @@
         <v>0.19999999999999998</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -9067,7 +9064,7 @@
     <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="21">
         <v>2</v>
@@ -9087,7 +9084,7 @@
         <v>0.12</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
@@ -9109,7 +9106,7 @@
     <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
@@ -9129,7 +9126,7 @@
         <v>0.13999999999999999</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -9151,7 +9148,7 @@
     <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="21">
         <v>5</v>
@@ -9171,7 +9168,7 @@
         <v>0.25999999999999995</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -9193,7 +9190,7 @@
     <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="26">
         <v>5</v>
@@ -9213,7 +9210,7 @@
         <v>0.27999999999999997</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -9235,7 +9232,7 @@
     <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="30"/>
@@ -9274,7 +9271,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H10" s="15"/>
       <c r="J10" s="15"/>
@@ -9326,7 +9323,7 @@
     <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -9355,16 +9352,16 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -9387,21 +9384,21 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="53"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -9426,7 +9423,7 @@
     <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="34">
         <v>20100</v>
@@ -9466,7 +9463,7 @@
     <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="34">
         <v>18200</v>
@@ -9506,7 +9503,7 @@
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" s="38">
         <v>17700</v>
@@ -9546,7 +9543,7 @@
     <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="40" t="str">
         <f>VLOOKUP(C14,$B$4:$H$8,7,FALSE)</f>
@@ -9591,7 +9588,7 @@
     <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="40">
         <f>VLOOKUP(C14,$B$4:$H$8,6,FALSE)</f>
@@ -9692,7 +9689,7 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="41" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -9722,7 +9719,7 @@
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C23" s="42">
         <f t="shared" ref="C23:G23" si="3">SQRT(C15^2+C16^2+C17^2)</f>
@@ -9767,7 +9764,7 @@
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="24">
         <f t="shared" ref="C24:C26" si="4">C15/$C$23</f>
@@ -9812,7 +9809,7 @@
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="24">
         <f t="shared" si="4"/>
@@ -9857,7 +9854,7 @@
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="28">
         <f t="shared" si="4"/>
@@ -9958,7 +9955,7 @@
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -9988,15 +9985,15 @@
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -10020,7 +10017,7 @@
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C31" s="43">
         <f t="shared" ref="C31:C33" si="9">$C$19*C24</f>
@@ -10065,7 +10062,7 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C32" s="14">
         <f t="shared" si="9"/>
@@ -10110,7 +10107,7 @@
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C33" s="44">
         <f t="shared" si="9"/>
@@ -10211,7 +10208,7 @@
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -10241,7 +10238,7 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37" s="46">
         <f t="shared" ref="C37:G37" si="14">IF(C18="Benefit",MAX(C31:C33),MIN(C31:C33))</f>
@@ -10286,7 +10283,7 @@
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -10316,7 +10313,7 @@
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C39" s="46">
         <f t="shared" ref="C39:G39" si="15">IF(C18="Cost/Risk",MAX(C31:C33),MIN(C31:C33))</f>
@@ -10417,7 +10414,7 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -10448,14 +10445,14 @@
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D43" s="23">
         <f t="shared" ref="D43:D45" si="16">SQRT((($C$37-C31)^2)+(($D$37-D31)^2)+(($E$37-E31)^2)+(($F$37-F31)^2)+(($G$37-G31)^2))</f>
         <v>9.618695868956402E-2</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" ref="F43:F45" si="17">SQRT(((C31-$C$39)^2)+((D31-$D$39)^2)+((E31-$E$39)^2)+((F31-$F$39)^2)+((G31-$G$39)^2))</f>
@@ -10486,14 +10483,14 @@
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D44" s="24">
         <f t="shared" si="16"/>
         <v>3.5935204838649414E-3</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="17"/>
@@ -10524,14 +10521,14 @@
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D45" s="28">
         <f t="shared" si="16"/>
         <v>0.14608450012232108</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F45" s="28">
         <f t="shared" si="17"/>
@@ -10617,7 +10614,7 @@
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -10647,16 +10644,16 @@
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
@@ -10687,7 +10684,7 @@
         <v xml:space="preserve">PT Polaris </v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D50" s="23">
         <f t="shared" ref="D50:D52" si="19">F43/(F43+D43)</f>
@@ -10726,7 +10723,7 @@
         <v>PT Solara</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D51" s="24">
         <f t="shared" si="19"/>
@@ -10765,7 +10762,7 @@
         <v>PT Celesta</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D52" s="28">
         <f t="shared" si="19"/>
@@ -10828,7 +10825,7 @@
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C54" s="48" t="str">
         <f>IF(E50=1, "PT Polaris", IF(E51=1, "PT Solara", IF(E52=1, "PT Celesta", "-")))</f>
